--- a/ESP32S3/ESP32S3 Master/BOM_esp32s3_master_2024-01-15.xlsx
+++ b/ESP32S3/ESP32S3 Master/BOM_esp32s3_master_2024-01-15.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_esp32s3_master_2024-01-15" state="visible" r:id="rId4"/>
+    <sheet name="BOM_esp32s3_master_2024-01-15" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="298">
   <si>
     <t>No.</t>
   </si>
@@ -827,6 +830,84 @@
   </si>
   <si>
     <t>0.795</t>
+  </si>
+  <si>
+    <t>Digikey Part</t>
+  </si>
+  <si>
+    <t>1276-1013-2-ND</t>
+  </si>
+  <si>
+    <t>490-13230-2-ND</t>
+  </si>
+  <si>
+    <t>1276-1451-2-ND</t>
+  </si>
+  <si>
+    <t>490-5881-2-ND</t>
+  </si>
+  <si>
+    <t>1276-6441-2-ND</t>
+  </si>
+  <si>
+    <t>455-1693-2-ND</t>
+  </si>
+  <si>
+    <t>296-25509-2-ND</t>
+  </si>
+  <si>
+    <t>5272-B5819WSTR-ND</t>
+  </si>
+  <si>
+    <t>A122867-ND</t>
+  </si>
+  <si>
+    <t>2057-PH1-07-UA-ND</t>
+  </si>
+  <si>
+    <t>1080-1570-2-ND</t>
+  </si>
+  <si>
+    <t>UHD1110-FKA-CL1A13R3Q1BBQFMF3TR-ND</t>
+  </si>
+  <si>
+    <t>4518-AO3401ATR-ND</t>
+  </si>
+  <si>
+    <t>UMH3NFHATNTR-ND</t>
+  </si>
+  <si>
+    <t>YAG2741TR-ND</t>
+  </si>
+  <si>
+    <t>YAG2572TR-ND</t>
+  </si>
+  <si>
+    <t>311-10.0KMTR-ND</t>
+  </si>
+  <si>
+    <t>YAG2713TR-ND</t>
+  </si>
+  <si>
+    <t>311-1MMTR-ND</t>
+  </si>
+  <si>
+    <t>311-100KMTR-ND</t>
+  </si>
+  <si>
+    <t>1292-WR02X4700FALTR-ND</t>
+  </si>
+  <si>
+    <t>563-1024-2-ND</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OTTR-ND</t>
+  </si>
+  <si>
+    <t>AP2112K-3.3TRG1DITR-ND</t>
+  </si>
+  <si>
+    <t>1965-ESP32-S3-MINI-1-N8TR-ND</t>
   </si>
 </sst>
 </file>
@@ -835,19 +916,25 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -862,8 +949,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,44 +980,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -959,12 +1047,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1003,216 +1091,159 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20" customWidth="1"/>
+    <col min="1" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,25 +1269,28 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1282,25 +1316,28 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1326,25 +1363,28 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1370,25 +1410,28 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>42</v>
       </c>
       <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1414,25 +1457,28 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
       <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1458,25 +1504,28 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
         <v>42</v>
       </c>
       <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
         <v>59</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1502,25 +1551,28 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
       <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>69</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1546,25 +1598,28 @@
         <v>75</v>
       </c>
       <c r="I8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
         <v>77</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>78</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>79</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1590,25 +1645,28 @@
         <v>85</v>
       </c>
       <c r="I9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" t="s">
         <v>86</v>
       </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>42</v>
       </c>
       <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
         <v>87</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1634,25 +1692,28 @@
         <v>93</v>
       </c>
       <c r="I10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" t="s">
         <v>94</v>
       </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
       <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
         <v>95</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>96</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1678,25 +1739,28 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" t="s">
         <v>104</v>
       </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
       <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
         <v>105</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>106</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>107</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -1722,25 +1786,28 @@
         <v>113</v>
       </c>
       <c r="I12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" t="s">
         <v>114</v>
       </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
         <v>42</v>
       </c>
       <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
         <v>115</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -1766,25 +1833,28 @@
         <v>121</v>
       </c>
       <c r="I13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
       <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
         <v>123</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>124</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -1810,25 +1880,28 @@
         <v>131</v>
       </c>
       <c r="I14" t="s">
+        <v>285</v>
+      </c>
+      <c r="J14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
         <v>42</v>
       </c>
       <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" t="s">
         <v>133</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1854,25 +1927,28 @@
         <v>139</v>
       </c>
       <c r="I15" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" t="s">
         <v>140</v>
       </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
       </c>
       <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>141</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -1898,25 +1974,28 @@
         <v>148</v>
       </c>
       <c r="I16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J16" t="s">
         <v>149</v>
       </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
       <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
         <v>150</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>151</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -1942,25 +2021,28 @@
         <v>148</v>
       </c>
       <c r="I17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" t="s">
         <v>157</v>
       </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
       <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
         <v>158</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>24</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>159</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -1986,25 +2068,28 @@
         <v>148</v>
       </c>
       <c r="I18" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" t="s">
         <v>165</v>
       </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
       <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
         <v>166</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>24</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>167</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -2030,25 +2115,28 @@
         <v>148</v>
       </c>
       <c r="I19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" t="s">
         <v>173</v>
       </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
       <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
         <v>174</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>175</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>176</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -2074,25 +2162,28 @@
         <v>148</v>
       </c>
       <c r="I20" t="s">
+        <v>291</v>
+      </c>
+      <c r="J20" t="s">
         <v>182</v>
       </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
       <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
         <v>183</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>24</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>184</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -2118,25 +2209,28 @@
         <v>148</v>
       </c>
       <c r="I21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" t="s">
         <v>190</v>
       </c>
-      <c r="J21" t="s">
-        <v>22</v>
-      </c>
       <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
         <v>191</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>24</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>192</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -2162,25 +2256,28 @@
         <v>198</v>
       </c>
       <c r="I22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" t="s">
         <v>199</v>
       </c>
-      <c r="J22" t="s">
-        <v>22</v>
-      </c>
       <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
         <v>200</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>51</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>201</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -2206,69 +2303,72 @@
         <v>207</v>
       </c>
       <c r="I23" t="s">
+        <v>294</v>
+      </c>
+      <c r="J23" t="s">
         <v>208</v>
       </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
       <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
         <v>209</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>210</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>211</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2294,25 +2394,28 @@
         <v>227</v>
       </c>
       <c r="I25" t="s">
+        <v>295</v>
+      </c>
+      <c r="J25" t="s">
         <v>228</v>
       </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
       <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
         <v>229</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>230</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>231</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2338,25 +2441,28 @@
         <v>237</v>
       </c>
       <c r="I26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J26" t="s">
         <v>238</v>
       </c>
-      <c r="J26" t="s">
-        <v>22</v>
-      </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
         <v>42</v>
       </c>
       <c r="M26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" t="s">
         <v>239</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -2382,113 +2488,116 @@
         <v>246</v>
       </c>
       <c r="I27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" t="s">
         <v>247</v>
       </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
       <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
         <v>248</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>249</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>250</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2496,6 +2605,6 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ESP32S3/ESP32S3 Master/BOM_esp32s3_master_2024-01-15.xlsx
+++ b/ESP32S3/ESP32S3 Master/BOM_esp32s3_master_2024-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="300">
   <si>
     <t>No.</t>
   </si>
@@ -658,33 +658,9 @@
     <t>23</t>
   </si>
   <si>
-    <t>TS-1928-B</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>KEY-SMD_4P-L2.8-W2.0-P1.20-LS3.0-TL</t>
-  </si>
-  <si>
-    <t>XKB Connectivity(中国星坤)</t>
-  </si>
-  <si>
-    <t>C1121891</t>
-  </si>
-  <si>
-    <t>8615</t>
-  </si>
-  <si>
-    <t>0.1258</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -908,6 +884,36 @@
   </si>
   <si>
     <t>1965-ESP32-S3-MINI-1-N8TR-ND</t>
+  </si>
+  <si>
+    <t>2073-USB4105-GF-ATR-ND</t>
+  </si>
+  <si>
+    <t>SKSWCFE010</t>
+  </si>
+  <si>
+    <t>SW-SMD_L3.0-W2.0-LS3.5</t>
+  </si>
+  <si>
+    <t>ALPSALPINE(阿尔卑斯阿尔派)</t>
+  </si>
+  <si>
+    <t>C255576</t>
+  </si>
+  <si>
+    <t>23280</t>
+  </si>
+  <si>
+    <t>0.1470</t>
+  </si>
+  <si>
+    <t>15962</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>P123440TR-ND</t>
   </si>
 </sst>
 </file>
@@ -949,9 +955,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1316,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -1363,7 +1370,7 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
@@ -1410,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -1457,7 +1464,7 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
@@ -1504,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
@@ -1551,7 +1558,7 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -1598,7 +1605,7 @@
         <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -1645,7 +1652,7 @@
         <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J9" t="s">
         <v>86</v>
@@ -1692,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J10" t="s">
         <v>94</v>
@@ -1739,7 +1746,7 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J11" t="s">
         <v>104</v>
@@ -1786,7 +1793,7 @@
         <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
         <v>114</v>
@@ -1833,7 +1840,7 @@
         <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J13" t="s">
         <v>122</v>
@@ -1880,7 +1887,7 @@
         <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
@@ -1927,7 +1934,7 @@
         <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J15" t="s">
         <v>140</v>
@@ -1974,7 +1981,7 @@
         <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="J16" t="s">
         <v>149</v>
@@ -2021,7 +2028,7 @@
         <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J17" t="s">
         <v>157</v>
@@ -2068,7 +2075,7 @@
         <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J18" t="s">
         <v>165</v>
@@ -2115,7 +2122,7 @@
         <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J19" t="s">
         <v>173</v>
@@ -2162,7 +2169,7 @@
         <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J20" t="s">
         <v>182</v>
@@ -2209,7 +2216,7 @@
         <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J21" t="s">
         <v>190</v>
@@ -2256,7 +2263,7 @@
         <v>198</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J22" t="s">
         <v>199</v>
@@ -2303,7 +2310,7 @@
         <v>207</v>
       </c>
       <c r="I23" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J23" t="s">
         <v>208</v>
@@ -2324,127 +2331,130 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>222</v>
+      <c r="E24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" t="s">
+        <v>287</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="s">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
         <v>224</v>
-      </c>
-      <c r="D25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H25" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" t="s">
-        <v>295</v>
-      </c>
-      <c r="J25" t="s">
-        <v>228</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>229</v>
-      </c>
-      <c r="M25" t="s">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s">
-        <v>231</v>
-      </c>
-      <c r="O25" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
@@ -2456,145 +2466,148 @@
         <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" t="s">
+        <v>289</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="s">
+        <v>241</v>
+      </c>
+      <c r="N27" t="s">
         <v>242</v>
       </c>
-      <c r="D27" t="s">
+      <c r="O27" t="s">
         <v>243</v>
-      </c>
-      <c r="E27" t="s">
-        <v>244</v>
-      </c>
-      <c r="F27" t="s">
-        <v>242</v>
-      </c>
-      <c r="G27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J27" t="s">
-        <v>247</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="s">
-        <v>248</v>
-      </c>
-      <c r="M27" t="s">
-        <v>249</v>
-      </c>
-      <c r="N27" t="s">
-        <v>250</v>
-      </c>
-      <c r="O27" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="I29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
